--- a/templates.xlsx
+++ b/templates.xlsx
@@ -302,7 +302,7 @@
     <t>这一年手术量排名前几的科室编码和名称？</t>
   </si>
   <si>
-    <t>在（时间段）内手术量排名前（几）的科室编码和名称？</t>
+    <t>在（时间段）内手术量排名前（整数）的科室编码和名称？</t>
   </si>
   <si>
     <t>SELECT MED_ORG_DEPT_CD, MED_ORG_DEPT_NM FROM t_kc22 WHERE STA_DATE BETWEEN $1 AND $2 AND MED_INV_ITEM_TYPE = 24 GROUP BY MED_ORG_DEPT_CD ORDER BY COUNT(*) DESC LIMIT $3</t>
@@ -311,7 +311,7 @@
     <t>这一年手术量排名倒数的科室编码和名称？</t>
   </si>
   <si>
-    <t>在（时间段）内手术量排名倒数前（几）的科室编码和名称？</t>
+    <t>在（时间段）内手术量排名倒数前（整数）的科室编码和名称？</t>
   </si>
   <si>
     <t>SELECT MED_ORG_DEPT_CD, MED_ORG_DEPT_NM FROM t_kc22 WHERE STA_DATE BETWEEN $1 AND $2 AND MED_INV_ITEM_TYPE = 24 GROUP BY MED_ORG_DEPT_CD ORDER BY COUNT(*) ASC LIMIT $3</t>
@@ -338,7 +338,7 @@
     <t>某医院年度统筹金额哪些科室消耗得多？</t>
   </si>
   <si>
-    <t>医疗机构（医疗机构代码）在（时间段）内统筹金额消耗最多的（几）个科室是哪些？</t>
+    <t>医疗机构（医疗机构代码）在（时间段）内统筹金额消耗最多的（整数）个科室是哪些？</t>
   </si>
   <si>
     <t>SELECT t_kc21.MED_ORG_DEPT_CD, t_kc21.MED_ORG_DEPT_NM FROM t_kc21 JOIN t_kc24 ON t_kc21.MED_CLINIC_ID = t_kc24.MED_CLINIC_ID WHERE t_kc21.MED_SER_ORG_NO = $1 AND t_kc24.CLINIC_SLT_DATE BETWEEN $2 AND $3 GROUP BY t_kc21.MED_ORG_DEPT_CD ORDER BY SUM(t_kc24.OVE_PAY) DESC LIMIT $4</t>
@@ -410,7 +410,7 @@
     <t>某医院住院天数&gt;180天的人数？</t>
   </si>
   <si>
-    <t>医疗机构（医疗机构代码）住院天数超过（几）天的人数？</t>
+    <t>医疗机构（医疗机构代码）住院天数超过（整数）天的人数？</t>
   </si>
   <si>
     <t>SELECT COUNT(DISTINCT hz_info.RYBH) FROM hz_info JOIN zyjzjlb ON hz_info.YLJGDM = zyjzjlb.YLJGDM AND hz_info.KH = zyjzjlb.KH AND hz_info.KLX = zyjzjlb.KLX WHERE zyjzjlb.YLJGDM = $1 AND CYSJ - RYSJ &gt; $2</t>
@@ -563,7 +563,7 @@
     <t>某医院使用次数top10的项目？</t>
   </si>
   <si>
-    <t>医疗机构（医疗机构代码）使用次数top（几）的项目？</t>
+    <t>医疗机构（医疗机构代码）使用次数top（整数）的项目？</t>
   </si>
   <si>
     <t>SELECT t_kc22.SOC_SRT_DIRE_CD, t_kc22.SOC_SRT_DIRE_NM FROM t_kc21 JOIN t_kc22 ON t_kc21.MED_CLINIC_ID = t_kc22.MED_CLINIC_ID WHERE t_kc21.MED_SER_ORG_NO = $1 GROUP BY t_kc22.SOC_SRT_DIRE_CD ORDER BY COUNT(*) DESC LIMIT $2</t>
@@ -572,7 +572,7 @@
     <t>某医院金额top10的项目？</t>
   </si>
   <si>
-    <t>医疗机构（医疗机构代码）金额top（几）的项目？</t>
+    <t>医疗机构（医疗机构代码）金额top（整数）的项目？</t>
   </si>
   <si>
     <t>SELECT t_kc22.SOC_SRT_DIRE_CD, t_kc22.SOC_SRT_DIRE_NM FROM t_kc21 JOIN t_kc22 ON t_kc21.MED_CLINIC_ID = t_kc22.MED_CLINIC_ID WHERE t_kc21.MED_SER_ORG_NO = $1 GROUP BY t_kc22.SOC_SRT_DIRE_CD ORDER BY SUM(t_kc22.AMOUNT) DESC LIMIT $2</t>
@@ -1193,7 +1193,7 @@
     <t>某医疗机构一年内未就业人员医疗就诊的医疗费总额达到10000元以上的就诊记录数量</t>
   </si>
   <si>
-    <t>医疗机构（医疗机构代码）在（时间段）内未就业人员医疗就诊的医疗费总额达到（几）元以上的就诊记录数量</t>
+    <t>医疗机构（医疗机构代码）在（时间段）内未就业人员医疗就诊的医疗费总额达到（大实数）元以上的就诊记录数量</t>
   </si>
   <si>
     <t>SELECT COUNT(*) FROM t_kc21 WHERE MED_SER_ORG_NO = $1 AND IN_HOSP_DATE BETWEEN $2 AND $3 AND INSURED_STS = 0 AND MED_AMOUT &gt;= $4</t>
@@ -1343,13 +1343,13 @@
     <t>某患者一年内自付比例低于50%的药品量</t>
   </si>
   <si>
-    <t>患者（人员ID）在（时间段）内自付比例低于（几）的药品量</t>
+    <t>患者（人员ID）在（时间段）内自付比例低于（小实数）的药品量</t>
   </si>
   <si>
     <t>SELECT COUNT(*) FROM t_kc21 JOIN t_kc22 ON t_kc21.MED_CLINIC_ID = t_kc22.MED_CLINIC_ID WHERE t_kc21.PERSON_ID = $1 AND t_kc22.STA_DATE BETWEEN $2 AND $3 AND t_kc22.SELF_PAY_PRO &lt; $4</t>
   </si>
   <si>
-    <t>患者（人员姓名）在（时间段）内自付比例低于（几）的药品量</t>
+    <t>患者（人员姓名）在（时间段）内自付比例低于（小实数）的药品量</t>
   </si>
   <si>
     <t>SELECT COUNT(*) FROM t_kc21 JOIN t_kc22 ON t_kc21.MED_CLINIC_ID = t_kc22.MED_CLINIC_ID WHERE t_kc21.PERSON_NM = $1 AND t_kc22.STA_DATE BETWEEN $2 AND $3 AND t_kc22.SELF_PAY_PRO &lt; $4</t>
@@ -1358,13 +1358,13 @@
     <t>某患者一年内自费金额高于1000元的药品量</t>
   </si>
   <si>
-    <t>患者（人员ID）在（时间段）内自费金额高于（几）元的药品量</t>
+    <t>患者（人员ID）在（时间段）内自费金额高于（大实数）元的药品量</t>
   </si>
   <si>
     <t>SELECT COUNT(*) FROM t_kc21 JOIN t_kc22 ON t_kc21.MED_CLINIC_ID = t_kc22.MED_CLINIC_ID WHERE t_kc21.PERSON_ID = $1 AND t_kc22.STA_DATE BETWEEN $2 AND $3 AND t_kc22.SELF_PAY_AMO &gt; $4</t>
   </si>
   <si>
-    <t>患者（人员姓名）在（时间段）内自费金额高于（几）元的药品量</t>
+    <t>患者（人员姓名）在（时间段）内自费金额高于（大实数）元的药品量</t>
   </si>
   <si>
     <t>SELECT COUNT(*) FROM t_kc21 JOIN t_kc22 ON t_kc21.MED_CLINIC_ID = t_kc22.MED_CLINIC_ID WHERE t_kc21.PERSON_NM = $1 AND t_kc22.STA_DATE BETWEEN $2 AND $3 AND t_kc22.SELF_PAY_AMO &gt; $4</t>
@@ -1373,7 +1373,7 @@
     <t>列出某次医疗就诊开出药品的定价上限金额高于1000元的所有药品</t>
   </si>
   <si>
-    <t>列出医疗就诊（医疗就诊ID）中开出药品的定价上限金额高于（几）元的所有药品</t>
+    <t>列出医疗就诊（医疗就诊ID）中开出药品的定价上限金额高于（大实数）元的所有药品</t>
   </si>
   <si>
     <t>SELECT SOC_SRT_DIRE_CD, SOC_SRT_DIRE_NM FROM t_kc22 WHERE MED_CLINIC_ID = $1 AND UP_LIMIT_AMO &gt; $2</t>
@@ -1382,7 +1382,7 @@
     <t>列出某次医疗就诊开出药品的超限价自付金额高于100元的所有药品</t>
   </si>
   <si>
-    <t>列出医疗就诊（医疗就诊ID）中开出药品的超限价自付金额高于（几）元的所有药品</t>
+    <t>列出医疗就诊（医疗就诊ID）中开出药品的超限价自付金额高于（大实数）元的所有药品</t>
   </si>
   <si>
     <t>SELECT SOC_SRT_DIRE_CD, SOC_SRT_DIRE_NM FROM t_kc22 WHERE MED_CLINIC_ID = $1 AND OVE_SELF_AMO &gt; $2</t>
@@ -1778,7 +1778,7 @@
     <t>某医疗机构某个月中住院时长超过一周的住院就诊记录数</t>
   </si>
   <si>
-    <t>医疗机构（医疗机构代码）在（时间段）内住院时长超过（几）天的住院就诊记录数</t>
+    <t>医疗机构（医疗机构代码）在（时间段）内住院时长超过（整数）天的住院就诊记录数</t>
   </si>
   <si>
     <t>SELECT COUNT(*) FROM zyjzjlb WHERE YLJGDM = $1 AND RYDJSJ BETWEEN $2 AND $3 AND CYSJ - RYSJ &gt; $4</t>
@@ -2225,25 +2225,25 @@
     <t>把某市开药天数&gt;500天的患者按就诊医生聚集列出来</t>
   </si>
   <si>
-    <t>把（地点）开药时长超过（几）天的患者按就诊医生聚集列出来</t>
+    <t>把（地点）开药时长超过（整数）天的患者按就诊医生聚集列出来</t>
   </si>
   <si>
     <t>把某市开药天数&gt;500天的患者按就诊医院聚集列出来</t>
   </si>
   <si>
-    <t>把（地点）开药时长超过（几）天的患者按就诊医院聚集列出来</t>
+    <t>把（地点）开药时长超过（整数）天的患者按就诊医院聚集列出来</t>
   </si>
   <si>
     <t>把某市全年在一个小时（天/5分钟）内共同就诊的参保人对列出来</t>
   </si>
   <si>
-    <t>把（地点）在（时间段）内在（几）天内共同就诊的参保人对列出来</t>
+    <t>把（地点）在（时间段）内在（整数）天内共同就诊的参保人对列出来</t>
   </si>
   <si>
     <t>把某市全年开药次数&gt;50（100/200）的参保人及其开药次数列出来</t>
   </si>
   <si>
-    <t>把（地点）在（时间段）内开药次数超过（几）次的参保人及其开药次数列出来</t>
+    <t>把（地点）在（时间段）内开药次数超过（整数）次的参保人及其开药次数列出来</t>
   </si>
   <si>
     <t>某参保人年度小金额结算次数，10元以内为小金额</t>
@@ -2488,7 +2488,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>

--- a/templates.xlsx
+++ b/templates.xlsx
@@ -452,7 +452,7 @@
     <t>患者（人员姓名）在（时间段）内花了多少医保金额？</t>
   </si>
   <si>
-    <t>SELECT SUM(PER_ACC_PAY) FROM t_kc24 WHERE PERSON_NM = $1 AND CLINIC_SLT_DATE BETWEEN $2 AND $3</t>
+    <t>SELECT SUM(t_kc24.PER_ACC_PAY) FROM t_kc21 JOIN t_kc24 ON t_kc21.MED_CLINIC_ID = t_kc24.MED_CLINIC_ID WHERE t_kc21.PERSON_NM = $1 AND t_kc24.CLINIC_SLT_DATE BETWEEN $2 AND $3</t>
   </si>
   <si>
     <t>某人一年去了几个医院？</t>
@@ -746,7 +746,7 @@
     <t>患者（人员姓名）在（时间段）内医保的医疗费总额</t>
   </si>
   <si>
-    <t>SELECT SUM(MED_AMOUT) FROM t_kc24 WHERE PERSON_NM = $1 AND CLINIC_SLT_DATE BETWEEN $2 AND $3</t>
+    <t>SELECT SUM(t_kc24.MED_AMOUT) FROM t_kc21 JOIN t_kc24 ON t_kc21.MED_CLINIC_ID = t_kc24.MED_CLINIC_ID WHERE t_kc21.PERSON_NM = $1 AND t_kc24.CLINIC_SLT_DATE BETWEEN $2 AND $3</t>
   </si>
   <si>
     <t>某患者一年内医保的个人账户支出总额</t>
@@ -770,7 +770,7 @@
     <t>患者（人员姓名）在（时间段）内医保的统筹基金支出总额</t>
   </si>
   <si>
-    <t>SELECT SUM(OVE_PAY) FROM t_kc24 WHERE PERSON_NM = $1 AND CLINIC_SLT_DATE BETWEEN $2 AND $3</t>
+    <t>SELECT SUM(t_kc24.OVE_PAY) FROM t_kc21 JOIN t_kc24 ON t_kc21.MED_CLINIC_ID = t_kc24.MED_CLINIC_ID WHERE t_kc21.PERSON_NM = $1 AND t_kc24.CLINIC_SLT_DATE BETWEEN $2 AND $3</t>
   </si>
   <si>
     <t>某医疗机构一年内处理异地就诊的次数</t>
@@ -965,7 +965,7 @@
     <t>患者（人员ID）查询医疗就诊（门诊就诊流水号或住院就诊流水号）的检验报告单</t>
   </si>
   <si>
-    <t>SELECT * FROM jybgb WHERE jybgb.JZLSH = $2</t>
+    <t>SELECT * FROM jybgb WHERE JZLSH = $2</t>
   </si>
   <si>
     <t>患者（人员姓名）查询医疗就诊（门诊就诊流水号或住院就诊流水号）的检验报告单</t>
@@ -1439,7 +1439,7 @@
     <t>医疗就诊（医疗就诊ID）是否完成了退费结算</t>
   </si>
   <si>
-    <t>SELECT REG_SLT_FLG FROM t_kc24 WHERE MED_CLINIC_ID = $1</t>
+    <t>SELECT REF_SLT_FLG FROM t_kc24 WHERE MED_CLINIC_ID = $1</t>
   </si>
   <si>
     <t>列出某患者就诊结算日期在7天内的所有医疗就诊记录编号</t>
@@ -1454,7 +1454,7 @@
     <t>列出患者（人员姓名）就诊结算日期在（时间段）内的所有医疗就诊记录编号</t>
   </si>
   <si>
-    <t>SELECT MED_CLINIC_ID FROM t_kc24 WHERE PERSON_NM = $1 AND CLINIC_SLT_DATE BETWEEN $2 AND $3</t>
+    <t>SELECT t_kc21.MED_CLINIC_ID FROM t_kc21 JOIN t_kc24 ON t_kc21.MED_CLINIC_ID = t_kc24.MED_CLINIC_ID WHERE t_kc21.PERSON_NM = $1 AND t_kc24.CLINIC_SLT_DATE BETWEEN $2 AND $3</t>
   </si>
   <si>
     <t>某次医疗就诊的定点医疗机构编码</t>
@@ -2258,7 +2258,7 @@
     <t>参保人（人员姓名）在（时间段）内小金额结算次数，10元以内为小金额</t>
   </si>
   <si>
-    <t>SELECT COUNT(*) FROM t_kc24 WHERE PERSON_NM = $1 AND CLINIC_SLT_DATE BETWEEN $2 AND $3 AND MED_AMOUT &lt;= 10</t>
+    <t>SELECT COUNT(*) FROM t_kc21 JOIN t_kc24 ON t_kc21.MED_CLINIC_ID = t_kc24.MED_CLINIC_ID WHERE t_kc21.PERSON_NM = $1 AND t_kc24.CLINIC_SLT_DATE BETWEEN $2 AND $3 AND t_kc24.MED_AMOUT &lt;= 10</t>
   </si>
   <si>
     <t>某参保人住院整数金额次数</t>
@@ -2488,7 +2488,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5269,7 +5269,7 @@
         <v>6.0</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -6985,7 +6985,7 @@
         <v>8.0</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -7073,7 +7073,7 @@
         <v>8.0</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -7161,7 +7161,7 @@
         <v>8.0</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
@@ -11077,7 +11077,7 @@
         <v>8.0</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
@@ -15433,7 +15433,7 @@
         <v>6.0</v>
       </c>
       <c r="G290" s="4" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>

--- a/templates.xlsx
+++ b/templates.xlsx
@@ -413,7 +413,7 @@
     <t>医疗机构（医疗机构代码）住院天数超过（整数）天的人数？</t>
   </si>
   <si>
-    <t>SELECT COUNT(DISTINCT hz_info.RYBH) FROM hz_info JOIN zyjzjlb ON hz_info.YLJGDM = zyjzjlb.YLJGDM AND hz_info.KH = zyjzjlb.KH AND hz_info.KLX = zyjzjlb.KLX WHERE zyjzjlb.YLJGDM = $1 AND CYSJ - RYSJ &gt; $2</t>
+    <t>SELECT COUNT(DISTINCT hz_info.RYBH) FROM hz_info JOIN zyjzjlb ON hz_info.YLJGDM = zyjzjlb.YLJGDM AND hz_info.KH = zyjzjlb.KH AND hz_info.KLX = zyjzjlb.KLX WHERE zyjzjlb.YLJGDM = $1 AND DATEDIFF(zyjzjlb.CYSJ, zyjzjlb.RYSJ) &gt; $2</t>
   </si>
   <si>
     <t>某医院异地就医人数？</t>
@@ -788,13 +788,13 @@
     <t>患者（人员ID）在（时间段）内在医疗机构（医疗机构代码）的门诊就诊次数</t>
   </si>
   <si>
-    <t>SELECT COUNT(*) FROM hz_info JOIN mzjzjlb ON hz_info.YLJGDM = mzjzjlb.YLJGDM AND hz_info.KH = mzjzjlb.KH AND hz_info.KLX = mzjzjlb.KLX WHERE hz_info.RYBH = $1 AND JZKSRQ BETWEEN $2 AND $3 AND mzjzjlb.YLJGDM = $4</t>
+    <t>SELECT COUNT(*) FROM hz_info JOIN mzjzjlb ON hz_info.YLJGDM = mzjzjlb.YLJGDM AND hz_info.KH = mzjzjlb.KH AND hz_info.KLX = mzjzjlb.KLX WHERE hz_info.RYBH = $1 AND mzjzjlb.JZKSRQ BETWEEN $2 AND $3 AND mzjzjlb.YLJGDM = $4</t>
   </si>
   <si>
     <t>患者（人员姓名）在（时间段）内在医疗机构（医疗机构代码）的门诊就诊次数</t>
   </si>
   <si>
-    <t>SELECT COUNT(*) FROM person_info JOIN hz_info JOIN mzjzjlb ON person_info.RYBH = hz_info.RYBH AND hz_info.YLJGDM = mzjzjlb.YLJGDM AND hz_info.KH = mzjzjlb.KH AND hz_info.KLX = mzjzjlb.KLX WHERE person_info.XM = $1 AND JZKSRQ BETWEEN $2 AND $3 AND mzjzjlb.YLJGDM = $4</t>
+    <t>SELECT COUNT(*) FROM person_info JOIN hz_info JOIN mzjzjlb ON person_info.RYBH = hz_info.RYBH AND hz_info.YLJGDM = mzjzjlb.YLJGDM AND hz_info.KH = mzjzjlb.KH AND hz_info.KLX = mzjzjlb.KLX WHERE person_info.XM = $1 AND mzjzjlb.JZKSRQ BETWEEN $2 AND $3 AND mzjzjlb.YLJGDM = $4</t>
   </si>
   <si>
     <t>某医疗机构某月处理的新生儿门诊就诊次数</t>
@@ -1781,7 +1781,7 @@
     <t>医疗机构（医疗机构代码）在（时间段）内住院时长超过（整数）天的住院就诊记录数</t>
   </si>
   <si>
-    <t>SELECT COUNT(*) FROM zyjzjlb WHERE YLJGDM = $1 AND RYDJSJ BETWEEN $2 AND $3 AND CYSJ - RYSJ &gt; $4</t>
+    <t>SELECT COUNT(*) FROM zyjzjlb WHERE YLJGDM = $1 AND RYDJSJ BETWEEN $2 AND $3 AND DATEDIFF(CYSJ, RYSJ) &gt; $4</t>
   </si>
   <si>
     <t>某次住院就诊的出院状态代码</t>
@@ -2488,7 +2488,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>

--- a/templates.xlsx
+++ b/templates.xlsx
@@ -812,13 +812,13 @@
     <t>患者（人员ID）（部位）的各项指标检验结果</t>
   </si>
   <si>
-    <t>(SELECT jyjgzbb.* FROM hz_info JOIN mzjzjlb JOIN jybgb JOIN jyjgzbb ON hz_info.YLJGDM = mzjzjlb.YLJGDM AND hz_info.KH = mzjzjlb.KH AND hz_info.KLX = mzjzjlb.KLX AND mzjzjlb.YLJGDM = jybgb.YLJGDM AND mzjzjlb.JZLSH = jybgb.JZLSH AND jybgb.YLJGDM = jyjgzbb.YLJGDM AND jybgb.BGDH = jyjgzbb.BGDH WHERE hz_info.RYBH = $1 AND jybgb.BBCJBW = $2) UNION (SELECT jyjgzbb.* FROM hz_info JOIN zyjzjlb JOIN jybgb JOIN jyjgzbb ON hz_info.YLJGDM = zyjzjlb.YLJGDM AND hz_info.KH = zyjzjlb.KH AND hz_info.KLX = zyjzjlb.KLX AND zyjzjlb.YLJGDM = jybgb.YLJGDM AND zyjzjlb.JZLSH = jybgb.JZLSH AND jybgb.YLJGDM = jyjgzbb.YLJGDM AND jybgb.BGDH = jyjgzbb.BGDH WHERE hz_info.RYBH = $1 AND jyjgzbb.BBCJBW = $2)</t>
+    <t>(SELECT jyjgzbb.* FROM hz_info JOIN mzjzjlb JOIN jybgb JOIN jyjgzbb ON hz_info.YLJGDM = mzjzjlb.YLJGDM AND hz_info.KH = mzjzjlb.KH AND hz_info.KLX = mzjzjlb.KLX AND mzjzjlb.YLJGDM = jybgb.YLJGDM AND mzjzjlb.JZLSH = jybgb.JZLSH AND jybgb.YLJGDM = jyjgzbb.YLJGDM AND jybgb.BGDH = jyjgzbb.BGDH WHERE hz_info.RYBH = $1 AND jybgb.BBCJBW = $2) UNION (SELECT jyjgzbb.* FROM hz_info JOIN zyjzjlb JOIN jybgb JOIN jyjgzbb ON hz_info.YLJGDM = zyjzjlb.YLJGDM AND hz_info.KH = zyjzjlb.KH AND hz_info.KLX = zyjzjlb.KLX AND zyjzjlb.YLJGDM = jybgb.YLJGDM AND zyjzjlb.JZLSH = jybgb.JZLSH AND jybgb.YLJGDM = jyjgzbb.YLJGDM AND jybgb.BGDH = jyjgzbb.BGDH WHERE hz_info.RYBH = $1 AND jybgb.BBCJBW = $2)</t>
   </si>
   <si>
     <t>患者（人员姓名）（部位）的各项指标检验结果</t>
   </si>
   <si>
-    <t>(SELECT jyjgzbb.* FROM person_info JOIN hz_info JOIN mzjzjlb JOIN jybgb JOIN jyjgzbb ON person_info.RYBH = hz_info.RYBH AND hz_info.YLJGDM = mzjzjlb.YLJGDM AND hz_info.KH = mzjzjlb.KH AND hz_info.KLX = mzjzjlb.KLX AND mzjzjlb.YLJGDM = jybgb.YLJGDM AND mzjzjlb.JZLSH = jybgb.JZLSH AND jybgb.YLJGDM = jyjgzbb.YLJGDM AND jybgb.BGDH = jyjgzbb.BGDH WHERE person_info.XM = $1 AND jybgb.BBCJBW = $2) UNION (SELECT jyjgzbb.* FROM person_info JOIN hz_info JOIN zyjzjlb JOIN jybgb JOIN jyjgzbb ON person_info.RYBH = hz_info.RYBH AND hz_info.YLJGDM = zyjzjlb.YLJGDM AND hz_info.KH = zyjzjlb.KH AND hz_info.KLX = zyjzjlb.KLX AND zyjzjlb.YLJGDM = jybgb.YLJGDM AND zyjzjlb.JZLSH = jybgb.JZLSH AND jybgb.YLJGDM = jyjgzbb.YLJGDM AND jybgb.BGDH = jyjgzbb.BGDH WHERE person_info.XM = $1 AND jyjgzbb.BBCJBW = $2)</t>
+    <t>(SELECT jyjgzbb.* FROM person_info JOIN hz_info JOIN mzjzjlb JOIN jybgb JOIN jyjgzbb ON person_info.RYBH = hz_info.RYBH AND hz_info.YLJGDM = mzjzjlb.YLJGDM AND hz_info.KH = mzjzjlb.KH AND hz_info.KLX = mzjzjlb.KLX AND mzjzjlb.YLJGDM = jybgb.YLJGDM AND mzjzjlb.JZLSH = jybgb.JZLSH AND jybgb.YLJGDM = jyjgzbb.YLJGDM AND jybgb.BGDH = jyjgzbb.BGDH WHERE person_info.XM = $1 AND jybgb.BBCJBW = $2) UNION (SELECT jyjgzbb.* FROM person_info JOIN hz_info JOIN zyjzjlb JOIN jybgb JOIN jyjgzbb ON person_info.RYBH = hz_info.RYBH AND hz_info.YLJGDM = zyjzjlb.YLJGDM AND hz_info.KH = zyjzjlb.KH AND hz_info.KLX = zyjzjlb.KLX AND zyjzjlb.YLJGDM = jybgb.YLJGDM AND zyjzjlb.JZLSH = jybgb.JZLSH AND jybgb.YLJGDM = jyjgzbb.YLJGDM AND jybgb.BGDH = jyjgzbb.BGDH WHERE person_info.XM = $1 AND jybgb.BBCJBW = $2)</t>
   </si>
   <si>
     <t>某患者某次医疗就诊开出的各药品的名称及其每次用量和使用频次</t>
@@ -2075,13 +2075,13 @@
     <t>列出患者（人员ID）在（时间段）内被开出的所有检验报告单的科室编码以及名称</t>
   </si>
   <si>
-    <t>(SELECT jybgb.KSBM, jybgb.KSMC FROM hz_info JOIN mzjzjlb JOIN jybgb ON hz_info.YLJGDM = mzjzjlb.YLJGDM AND hz_info.KH = mzjzjlb.KH AND hz_info.KLX = mzjzjlb.KLX AND mzjzjlb.YLJGDM = jybgb.YLJGDM AND mzjzjlb.JZLSH = jybgb.JZLSH WHERE hz_info.RYBH = $1 AND jybgb.BGRQ BETWEEN $2 AND $3) UNION (SELECT jybgb.KSBM, jybgb,KSMC FROM hz_info JOIN zyjzjlb JOIN jybgb ON hz_info.YLJGDM = zyjzjlb.YLJGDM AND hz_info.KH = zyjzjlb.KH AND hz_info.KLX = zyjzjlb.KLX AND zyjzjlb.YLJGDM = jybgb.YLJGDM AND zyjzjlb.JZLSH = jybgb.JZLSH WHERE hz_info.RYBH = $1 AND jybgb.BGRQ BETWEEN $2 AND $3)</t>
+    <t>(SELECT jybgb.KSBM, jybgb.KSMC FROM hz_info JOIN mzjzjlb JOIN jybgb ON hz_info.YLJGDM = mzjzjlb.YLJGDM AND hz_info.KH = mzjzjlb.KH AND hz_info.KLX = mzjzjlb.KLX AND mzjzjlb.YLJGDM = jybgb.YLJGDM AND mzjzjlb.JZLSH = jybgb.JZLSH WHERE hz_info.RYBH = $1 AND jybgb.BGRQ BETWEEN $2 AND $3) UNION (SELECT jybgb.KSBM, jybgb.KSMC FROM hz_info JOIN zyjzjlb JOIN jybgb ON hz_info.YLJGDM = zyjzjlb.YLJGDM AND hz_info.KH = zyjzjlb.KH AND hz_info.KLX = zyjzjlb.KLX AND zyjzjlb.YLJGDM = jybgb.YLJGDM AND zyjzjlb.JZLSH = jybgb.JZLSH WHERE hz_info.RYBH = $1 AND jybgb.BGRQ BETWEEN $2 AND $3)</t>
   </si>
   <si>
     <t>列出患者（人员姓名）在（时间段）内被开出的所有检验报告单的科室编码以及名称</t>
   </si>
   <si>
-    <t>(SELECT jybgb.KSBM, jybgb.KSMC FROM person_info JOIN hz_info JOIN mzjzjlb JOIN jybgb ON person_info.RYBH = hz_info.RYBH AND hz_info.YLJGDM = mzjzjlb.YLJGDM AND hz_info.KH = mzjzjlb.KH AND hz_info.KLX = mzjzjlb.KLX AND mzjzjlb.YLJGDM = jybgb.YLJGDM AND mzjzjlb.JZLSH = jybgb.JZLSH WHERE person_info.XM = $1 AND jybgb.BGRQ BETWEEN $2 AND $3) UNION (SELECT jybgb.KSBM, jybgb,KSMC FROM person_info JOIN hz_info JOIN zyjzjlb JOIN jybgb ON person_info.RYBH = hz_info.RYBH AND hz_info.YLJGDM = zyjzjlb.YLJGDM AND hz_info.KH = zyjzjlb.KH AND hz_info.KLX = zyjzjlb.KLX AND zyjzjlb.YLJGDM = jybgb.YLJGDM AND zyjzjlb.JZLSH = jybgb.JZLSH WHERE person_info.XM = $1 AND jybgb.BGRQ BETWEEN $2 AND $3)</t>
+    <t>(SELECT jybgb.KSBM, jybgb.KSMC FROM person_info JOIN hz_info JOIN mzjzjlb JOIN jybgb ON person_info.RYBH = hz_info.RYBH AND hz_info.YLJGDM = mzjzjlb.YLJGDM AND hz_info.KH = mzjzjlb.KH AND hz_info.KLX = mzjzjlb.KLX AND mzjzjlb.YLJGDM = jybgb.YLJGDM AND mzjzjlb.JZLSH = jybgb.JZLSH WHERE person_info.XM = $1 AND jybgb.BGRQ BETWEEN $2 AND $3) UNION (SELECT jybgb.KSBM, jybgb.KSMC FROM person_info JOIN hz_info JOIN zyjzjlb JOIN jybgb ON person_info.RYBH = hz_info.RYBH AND hz_info.YLJGDM = zyjzjlb.YLJGDM AND hz_info.KH = zyjzjlb.KH AND hz_info.KLX = zyjzjlb.KLX AND zyjzjlb.YLJGDM = jybgb.YLJGDM AND zyjzjlb.JZLSH = jybgb.JZLSH WHERE person_info.XM = $1 AND jybgb.BGRQ BETWEEN $2 AND $3)</t>
   </si>
   <si>
     <t>列出某患者某周内所有检验结果指标记录的检测人为某人的检验指标流水号</t>
@@ -2488,7 +2488,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7768,7 +7768,7 @@
         <v>286</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>118</v>
